--- a/singles/dif/result.xlsx
+++ b/singles/dif/result.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BUS\busy\singles\dif\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="4935" windowWidth="13395" xWindow="360" yWindow="150"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="4935"/>
   </bookViews>
   <sheets>
-    <sheet name="avangard_result" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="hpo_result" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="avangard_result" sheetId="1" r:id="rId1"/>
+    <sheet name="hpo_result" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Весь НДС из базы</t>
   </si>
@@ -92,21 +97,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -122,15 +126,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,40 +433,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="A1:XFD1048576"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="21.140625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="9"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="19"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="28.5703125"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>33586.42</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1">
         <v>30048.28000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -467,175 +476,171 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>16.88</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>31180.11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>258.52</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>6.82</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>64.77</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>209.07</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>42.81</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>21.93</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>27314.14</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>223.31</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>408.4</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="n">
-        <v>681.1900000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8">
+        <v>681.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1313.77</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>687.47</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>45.64</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>27.72</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="n">
-        <v>37.84</v>
+      <c r="B11">
+        <v>37.840000000000003</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>23.69</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="n">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>33061.31</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>29523.17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/singles/dif/result.xlsx
+++ b/singles/dif/result.xlsx
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="avangard_result" sheetId="1" r:id="rId1"/>
     <sheet name="hpo_result" sheetId="2" r:id="rId2"/>
+    <sheet name="архивно" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Весь НДС из базы</t>
   </si>
@@ -43,27 +44,12 @@
     <t>ИООО "Газпромнефть-Белнефтепродукт"</t>
   </si>
   <si>
-    <t>Водоканал</t>
-  </si>
-  <si>
     <t>Индивидуальный предприниматель Гнатковская Евгения Владимировна</t>
   </si>
   <si>
-    <t>Газпромнефть</t>
-  </si>
-  <si>
     <t>МИНСКИЙ ФИЛИАЛ РУП "БЕЛТЕЛЕКОМ"</t>
   </si>
   <si>
-    <t>МТС</t>
-  </si>
-  <si>
-    <t>ООО "Авангардспецмонтажплюс"</t>
-  </si>
-  <si>
-    <t>Мингаз УП</t>
-  </si>
-  <si>
     <t>Производственное республиканское унитарное предприятие "МИНГАЗ"</t>
   </si>
   <si>
@@ -73,25 +59,55 @@
     <t>РУП"Минскэнерго" ф-л"Энергосбыт" г.Минск,РБ</t>
   </si>
   <si>
-    <t>Минскэнерго ф-л Энергосбыт</t>
-  </si>
-  <si>
     <t>Совместное общество с ограниченной ответственностью "Мобильные ТелеСистемы"</t>
   </si>
   <si>
-    <t>Ремондис СООО</t>
-  </si>
-  <si>
     <t>Совместное общество с ограниченной ответственностью "РЕМОНДИС Минск"</t>
   </si>
   <si>
-    <t>Ф-Л Белтелеком</t>
-  </si>
-  <si>
     <t>Частное предприятие "ИВИТАН"</t>
   </si>
   <si>
     <t>Всего</t>
+  </si>
+  <si>
+    <t>ООО "Автофарт"</t>
+  </si>
+  <si>
+    <t>Белтрансспутник</t>
+  </si>
+  <si>
+    <t>ООО "Астра-Лизинг"</t>
+  </si>
+  <si>
+    <t>ИП Гоман К.Н.</t>
+  </si>
+  <si>
+    <t>ООО "МЕКУС"</t>
+  </si>
+  <si>
+    <t>МЖК СТРОЙИНВЕСТ</t>
+  </si>
+  <si>
+    <t>СООО "Интеллект-Лизинг"</t>
+  </si>
+  <si>
+    <t>Мекус ООО</t>
+  </si>
+  <si>
+    <t>УП "Минское отделение БЖД" г. Минск ул. Свердлова 28 РБ</t>
+  </si>
+  <si>
+    <t>Нафтан ОАО</t>
+  </si>
+  <si>
+    <t>Унитарное предприятие "МЖК-СтройИнвест"</t>
+  </si>
+  <si>
+    <t>Савдо ЧП</t>
+  </si>
+  <si>
+    <t>Стома А.А. ИП</t>
   </si>
 </sst>
 </file>
@@ -434,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
@@ -481,13 +497,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>16.88</v>
+        <v>10.06</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>31180.11</v>
+        <v>3865.97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -495,135 +511,85 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>258.52</v>
+        <v>49.45</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>6.82</v>
+        <v>681.19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>64.77</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>209.07</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>42.81</v>
+        <v>19.12</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>21.93</v>
+        <f>SUM(E3:E5)</f>
+        <v>4547.16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>27314.14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>223.31</v>
+        <v>185.09</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>408.4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>681.19</v>
+        <v>626.29999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>1313.77</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>687.47</v>
+        <v>23.71</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>45.64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>27.72</v>
+        <v>10.119999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>37.840000000000003</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>23.69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>33061.31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>29523.17</v>
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B3:B12)</f>
+        <v>1009.02</v>
       </c>
     </row>
   </sheetData>
@@ -633,14 +599,310 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="A1:XFD1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>47050.2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>63548.29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>2985.66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>40.159999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>4.33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>170.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>257.89999999999998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>21.45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>107.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>336.29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>58.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>64.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>3725.63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>453.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>47050.2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>63548.29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>2985.66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>40.159999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>4.33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>170.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>257.89999999999998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>21.45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>107.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>336.29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>58.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>64.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>3725.63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>453.68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/singles/dif/result.xlsx
+++ b/singles/dif/result.xlsx
@@ -9,19 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="4935"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="13395" windowHeight="4935" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="avangard_result" sheetId="1" r:id="rId1"/>
     <sheet name="hpo_result" sheetId="2" r:id="rId2"/>
-    <sheet name="архивно" sheetId="3" r:id="rId3"/>
+    <sheet name="ertex_result" sheetId="3" r:id="rId3"/>
+    <sheet name="ditest_result" sheetId="4" r:id="rId4"/>
+    <sheet name="amedenta_result" sheetId="5" r:id="rId5"/>
+    <sheet name="upak_result" sheetId="6" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>Весь НДС из базы</t>
   </si>
@@ -44,18 +48,21 @@
     <t>ИООО "Газпромнефть-Белнефтепродукт"</t>
   </si>
   <si>
+    <t>Министерство Финансов РБ (ТАМ)</t>
+  </si>
+  <si>
     <t>Индивидуальный предприниматель Гнатковская Евгения Владимировна</t>
   </si>
   <si>
     <t>МИНСКИЙ ФИЛИАЛ РУП "БЕЛТЕЛЕКОМ"</t>
   </si>
   <si>
+    <t>Всего</t>
+  </si>
+  <si>
     <t>Производственное республиканское унитарное предприятие "МИНГАЗ"</t>
   </si>
   <si>
-    <t>Министерство Финансов РБ (ТАМ)</t>
-  </si>
-  <si>
     <t>РУП"Минскэнерго" ф-л"Энергосбыт" г.Минск,РБ</t>
   </si>
   <si>
@@ -68,7 +75,7 @@
     <t>Частное предприятие "ИВИТАН"</t>
   </si>
   <si>
-    <t>Всего</t>
+    <t>TNN GROUP COMPANY LIMITED</t>
   </si>
   <si>
     <t>ООО "Автофарт"</t>
@@ -108,6 +115,78 @@
   </si>
   <si>
     <t>Стома А.А. ИП</t>
+  </si>
+  <si>
+    <t>ООО НПК Магниты и системы</t>
+  </si>
+  <si>
+    <t>Внешевросервис ООО</t>
+  </si>
+  <si>
+    <t>Миура ООО</t>
+  </si>
+  <si>
+    <t>РУП "БЕЛТЕЛЕКОМ"</t>
+  </si>
+  <si>
+    <t>ТАМОЖНЯ</t>
+  </si>
+  <si>
+    <t>ТД Комплект ООО</t>
+  </si>
+  <si>
+    <t>ООО "Бизнес-вектор"</t>
+  </si>
+  <si>
+    <t>Национальный центр электронных услуг</t>
+  </si>
+  <si>
+    <t>Спецкомплектимпэкс</t>
+  </si>
+  <si>
+    <t>Государственное учреждение "ГЛАВНОЕ ХОЗЯЙСТВЕННОЕ УПРАВЛЕНИЕ" УПРАВЛЕНИЯ ДЕЛАМИ ПРЕЗИДЕНТА РЕСПУБЛИКИ БЕЛАРУСЬ</t>
+  </si>
+  <si>
+    <t>Айчына Плюс ОДО</t>
+  </si>
+  <si>
+    <t>ОДО "Фторотекс"</t>
+  </si>
+  <si>
+    <t>ООО "Активные технологии"</t>
+  </si>
+  <si>
+    <t>ООО "Цицеро"</t>
+  </si>
+  <si>
+    <t>РЕСПУБЛИКАНСКИЙ ЦЕНТР ОЛИМПИЙСКОЙ ПОДГОТОВКИ СТАЙКИ</t>
+  </si>
+  <si>
+    <t>РУП  "Белоруснефть-Минскавтозаправка"</t>
+  </si>
+  <si>
+    <t>Совместное общество с ограниченной ответственностью "АНТОНАР"</t>
+  </si>
+  <si>
+    <t>Стайки</t>
+  </si>
+  <si>
+    <t>Унитарное предприятие "Велком"</t>
+  </si>
+  <si>
+    <t>Стройметаллэнергия ЧП</t>
+  </si>
+  <si>
+    <t>Филиал СП "АМИПАК"-ОАО в г.Минске</t>
+  </si>
+  <si>
+    <t>ЧПУП "Дионисупак"</t>
+  </si>
+  <si>
+    <t>Частное предприятие "Прецизионные технологии"</t>
+  </si>
+  <si>
+    <t>Частное торговое унитарное предприятие "Юдилен-холод"</t>
   </si>
 </sst>
 </file>
@@ -450,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
@@ -514,7 +593,7 @@
         <v>49.45</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>681.19</v>
@@ -522,7 +601,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>64.77</v>
@@ -530,22 +609,21 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>19.12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <f>SUM(E3:E5)</f>
         <v>4547.16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>185.09</v>
@@ -553,7 +631,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>626.29999999999995</v>
@@ -561,7 +639,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>23.71</v>
@@ -569,7 +647,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>10.119999999999999</v>
@@ -577,19 +655,26 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <f>SUM(B3:B12)</f>
-        <v>1009.02</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>681.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1690.21</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +687,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,13 +728,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>3.5</v>
@@ -657,13 +742,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>2985.66</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>40.159999999999997</v>
@@ -671,13 +756,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>4.33</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>170.59</v>
@@ -685,13 +770,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>257.89999999999998</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>8.66</v>
@@ -699,13 +784,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>21.45</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>107.77</v>
@@ -713,13 +798,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>336.29</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>58.33</v>
@@ -727,7 +812,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>64.67</v>
@@ -735,13 +820,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>3725.63</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>453.68</v>
@@ -754,10 +839,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="A1:XFD1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>47050.2</v>
+        <v>23234.87</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1">
-        <v>63548.29</v>
+        <v>7539.45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,111 +883,395 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>394.15</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>3.5</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>2985.66</v>
-      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>40.159999999999997</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>4.33</v>
+        <f>SUM(B3:B4)</f>
+        <v>394.15</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>170.59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>257.89999999999998</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>8.66</v>
+        <v>16037.69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>21.45</v>
-      </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>107.77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>336.29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>58.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>64.67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>3725.63</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>453.68</v>
+        <f>SUM(E3:E6)</f>
+        <v>16089.57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>3974.059999999999</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>3926.88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>47.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>45.22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>26.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>39.729999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5179.3799999999992</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>7772.63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>128.04</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>984.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>27.33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>2.63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f>SUM(E3:E5)</f>
+        <v>1006.8999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>1375.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>103.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>46.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>52.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>76.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>1699.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B3:B17)</f>
+        <v>3600.1500000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>